--- a/绩效考核表18年第四季度.xlsx
+++ b/绩效考核表18年第四季度.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>员工绩效考核表</t>
   </si>
@@ -67,10 +57,25 @@
 度</t>
   </si>
   <si>
+    <t>1、有团队合作意识，以集体，利益为重（6）</t>
+  </si>
+  <si>
+    <t>2、主动发现问题，提出问题、解决问题（6）</t>
+  </si>
+  <si>
     <t>3、有责任心，勇于承担责任（10）</t>
   </si>
   <si>
+    <t>4、遵守公司考勤制度，周报是否按时完成及完成情况（8）</t>
+  </si>
+  <si>
+    <t>5、工作内容的完成质量（开发完成的bug数目）（20）</t>
+  </si>
+  <si>
     <t>6、对工作充满积极性，主动配合其他岗位工作，与同事之间保持良好协作关系（10）</t>
+  </si>
+  <si>
+    <t>7、能主动加班，积极承受工作中的压力和难度（13）</t>
   </si>
   <si>
     <t>工
@@ -100,110 +105,26 @@
     <t>知识分享加分</t>
   </si>
   <si>
+    <t>分享新的技术给其他同事，看分享内容和分享效果，有资料最好</t>
+  </si>
+  <si>
     <t>总计得分</t>
   </si>
   <si>
     <t>绩效奖金总额</t>
-  </si>
-  <si>
-    <t>5、工作内容的完成质量（开发完成的bug数目）（20）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、有团队合作意识，以集体，利益为重（6）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、主动发现问题，提出问题、解决问题（6）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、遵守公司考勤制度，周报是否按时完成及完成情况（8）</t>
-    <rPh sb="11" eb="12">
-      <t>zhou'b</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>bao</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shi'f</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>an'shi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>wan'c</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>qing'k</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、能主动加班，积极承受工作中的压力和难度（13）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享新的技术给其他同事，看分享内容和分享效果，有资料最好</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>d</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>qi'ta</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>tong'shi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>kan</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fen'xiang'nei'r</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>he</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>fen'xiang</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>xiao'guo</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>you</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>zi'liao</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>zui'hao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,21 +141,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -402,31 +647,354 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,15 +1016,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -466,99 +1025,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -845,91 +1367,91 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="13.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="14.1296296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1296296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+    <row r="1" ht="51" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="40" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="19" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
@@ -937,212 +1459,212 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
+    <row r="7" ht="30" customHeight="1" spans="1:6">
+      <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="4">
         <v>6</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
+    <row r="8" ht="30" customHeight="1" spans="1:6">
+      <c r="A8" s="19"/>
+      <c r="B8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="4">
         <v>6</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
+    <row r="9" ht="30" customHeight="1" spans="1:6">
+      <c r="A9" s="19"/>
+      <c r="B9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="4">
         <v>10</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+    <row r="10" ht="30" customHeight="1" spans="1:6">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="4">
         <v>8</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+    <row r="11" ht="30" customHeight="1" spans="1:6">
+      <c r="A11" s="19"/>
+      <c r="B11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="4">
         <v>18</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+    <row r="12" ht="30" customHeight="1" spans="1:6">
+      <c r="A12" s="19"/>
+      <c r="B12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="25">
         <v>10</v>
       </c>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
+    <row r="13" ht="8.1" customHeight="1" spans="1:6">
+      <c r="A13" s="19"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:6">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
+    <row r="15" ht="30" customHeight="1" spans="1:6">
+      <c r="A15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="4">
         <v>15</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
+    <row r="16" ht="30" customHeight="1" spans="1:6">
+      <c r="A16" s="19"/>
+      <c r="B16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="25">
         <v>12</v>
       </c>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
+    <row r="17" ht="9" customHeight="1" spans="1:6">
+      <c r="A17" s="26"/>
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" ht="26.1" customHeight="1" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="4">
         <f>SUM(E18:F18)</f>
-        <v>29.099999999999998</v>
-      </c>
-      <c r="E18" s="6">
+        <v>27.9</v>
+      </c>
+      <c r="E18" s="33">
         <f>SUM(E7:E16)*0.3</f>
-        <v>29.099999999999998</v>
-      </c>
-      <c r="F18" s="5">
+        <v>27.9</v>
+      </c>
+      <c r="F18" s="19">
         <f>SUM(F7:F16)*0.7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="30" customHeight="1" spans="1:6">
       <c r="A19" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="25"/>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="30" customHeight="1" spans="1:6">
+      <c r="A20" s="26"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:6">
       <c r="A21" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="1:6">
+      <c r="A22" s="26"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:6">
+      <c r="A23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="4">
+        <f>E18+F18+F19+F21</f>
+        <v>27.9</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="24"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="2">
-        <f>E18+F18+F19+F21</f>
-        <v>29.099999999999998</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="19">
+      <c r="E23" s="6">
         <f>E18*10+F18*10+F19*20+F21*20</f>
-        <v>291</v>
-      </c>
-      <c r="F23" s="21"/>
+        <v>279</v>
+      </c>
+      <c r="F23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1151,61 +1673,67 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B12:D13"/>
-    <mergeCell ref="B16:D17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="B16:D17"/>
     <mergeCell ref="B19:E20"/>
     <mergeCell ref="B21:E22"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E23:F23"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>